--- a/iwebshop/data/reg.xlsx
+++ b/iwebshop/data/reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>112</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>账号为单字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,14 +136,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,107 +538,119 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
